--- a/outputs/logSummary.xlsx
+++ b/outputs/logSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abfernan\CrossCanFloodMapping\FloodProbabRNCanAbd\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC27CF8-1151-445F-A81A-B27C1F0A6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98133A0D-8D97-4AD0-9DF2-FD8C43308DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F417" sqref="A417:F417"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E451" sqref="E451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,7 +861,7 @@
     <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="91.44140625" customWidth="1"/>
     <col min="6" max="6" width="178.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
